--- a/Articulo Estado Arte/Lecturas.xlsx
+++ b/Articulo Estado Arte/Lecturas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\Articulo Estado Arte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D75151-C4FD-473D-B1A1-F4C399EE17C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54236A-A1E3-4096-95CD-3893BFC32961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{12022957-D163-4B94-ACE8-46A017715E34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> Tawfik. A, Rakha. H, Member and  Miller.S (2010) "Driver Route Choice Behavior: Experiences, Perceptions, and Choices"</t>
   </si>
@@ -45,6 +45,20 @@
   </si>
   <si>
     <t>Katsikopoulos &amp; Fisher (2002) Risk Attitude reversals in drivers route choice</t>
+  </si>
+  <si>
+    <t>Ramaekers, K, Reumers, S and Wets, G (2013) Modelling Route Choice decisions of Car travellers using combined GPS and diary data</t>
+  </si>
+  <si>
+    <t>Presenta una revisión de literatura bastante completo
+Jan et al. (2000) mostraron que el GPS es una herramienta viable para estudiar las decisiones de elección de ruta de los viajeros, ya que el GPS puede revelar información importante sobre el comportamiento del viaje que es imposible de discernir con métodos de encuestas convencionales anteriores, como entrevistas, cuestionarios administrados por los encuestados o simuladores de conductores.
+Abdel- Aty and Huang (2004) afirman que la elección de ruta es una función de múltiples factores, no solo el tiempo de viaje o la distancia.
+Avineri y Prashker (2004) de que los conductores de automóviles no son necesariamente maximizadores de utilidad, o que las funciones de utilidad clásicas en el contexto de las elecciones de ruta omiten variables explicativas importantes, y que se necesita más investigación para determinar si son maximizadores de prospectos o si otras teorías conductuales proporcionan una base conductual más sólida.
+Según Parkany et al (2006), las actitudes desempeñan un papel importante en las decisiones de viaje, ya que ayudan a guiar el comportamiento, y una tipología de actitudes hacia la elección de ruta podría usarse para estratificar los modelos de asignación de tráfico. Además de las actitudes personales, también hay una gran variedad de otras variables explicativas relacionadas con la elección de ruta.</t>
+  </si>
+  <si>
+    <t>[1] Jan O, Horowitz A, Peng Z-R (2000) Using global positioning system data to understand variations in path choice. Transp Res Rec 1725:37–44.
+[2] Parkany E, Du J, Aultman-Hall L, Gallagher R (2006) Modeling stated and revealed route choice: consideration of consistency, diversion, and attitudinal variables. Transp Res Rec 1985:29–39</t>
   </si>
 </sst>
 </file>
@@ -420,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EAA10F-DA56-474A-9886-CB7A74CB587B}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +466,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Articulo Estado Arte/Lecturas.xlsx
+++ b/Articulo Estado Arte/Lecturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\Articulo Estado Arte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54236A-A1E3-4096-95CD-3893BFC32961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD65D8AC-79F2-468B-999B-6610A4C9095F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{12022957-D163-4B94-ACE8-46A017715E34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"> Tawfik. A, Rakha. H, Member and  Miller.S (2010) "Driver Route Choice Behavior: Experiences, Perceptions, and Choices"</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t>[1] Jan O, Horowitz A, Peng Z-R (2000) Using global positioning system data to understand variations in path choice. Transp Res Rec 1725:37–44.
 [2] Parkany E, Du J, Aultman-Hall L, Gallagher R (2006) Modeling stated and revealed route choice: consideration of consistency, diversion, and attitudinal variables. Transp Res Rec 1985:29–39</t>
+  </si>
+  <si>
+    <t>Desde la perspectiva de la toma de decisiones, la investigación de elección de ruta se enfrenta a una serie de desafíos. El primero es comprender los patrones de comportamiento subyacentes exhibidos en las preferencias individuales. Los modeladores de transporte deben tomar nota de cómo se toman las decisiones de elección de ruta. Para algunas personas, reducir la distancia es un objetivo principal, mientras que para otras, es importante minimizar el tiempo de viaje o la cantidad de giros a la izquierda. Para otros, las preferencias personales como el hábito o el conocimiento de la ruta local son el factor determinante.</t>
+  </si>
+  <si>
+    <t>Papinski, D. Scott, D. Doherty, S. (2009) Exploring the route choice decision-making process: A comparison of planned and observed routes obtained using person-based GPS</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -118,6 +124,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EAA10F-DA56-474A-9886-CB7A74CB587B}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +486,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
